--- a/050_DBTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/TableSQL/模板_表列结构.xlsx
+++ b/050_DBTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/TableSQL/模板_表列结构.xlsx
@@ -2059,7 +2059,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="190">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2758,6 +2758,35 @@
   </si>
   <si>
     <t>通用列的表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>员工表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_EMPLOYEE</t>
+  </si>
+  <si>
+    <t>ORG_DEPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORG_EMPLOYEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先删后增</t>
+  </si>
+  <si>
+    <t>IS_FROM_INTERFACE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3371,7 +3400,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3820,16 +3849,34 @@
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="E4" s="18"/>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>186</v>
+      </c>
       <c r="E5" s="18"/>
       <c r="F5" s="11"/>
     </row>
@@ -3982,10 +4029,10 @@
   <dimension ref="A1:AJ55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6171,17 +6218,31 @@
       <c r="AJ42" s="23"/>
     </row>
     <row r="43" spans="1:36">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
+      <c r="A43" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="22">
+        <v>2</v>
+      </c>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="K43" s="22" t="s">
+        <v>92</v>
+      </c>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
@@ -6208,17 +6269,31 @@
       <c r="AJ43" s="23"/>
     </row>
     <row r="44" spans="1:36">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="A44" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="22">
+        <v>2</v>
+      </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
+      <c r="K44" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
@@ -6245,17 +6320,31 @@
       <c r="AJ44" s="23"/>
     </row>
     <row r="45" spans="1:36">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="A45" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="22">
+        <v>2</v>
+      </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
+      <c r="K45" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
@@ -6282,12 +6371,24 @@
       <c r="AJ45" s="23"/>
     </row>
     <row r="46" spans="1:36">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="A46" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="22">
+        <v>50</v>
+      </c>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -6319,12 +6420,24 @@
       <c r="AJ46" s="23"/>
     </row>
     <row r="47" spans="1:36">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
+      <c r="A47" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="22">
+        <v>50</v>
+      </c>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>

--- a/050_DBTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/TableSQL/模板_表列结构.xlsx
+++ b/050_DBTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/TableSQL/模板_表列结构.xlsx
@@ -138,6 +138,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -147,6 +148,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -198,6 +200,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -207,10 +210,79 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 当本列不为空时，并且转换为该种类型SQL脚本时，直接使用该列内容作为列类型，如varchar(36)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+格式：“初始值，增长量”；例如“10000，1”，表示从10000开始，每增一条记录就加1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+空表示否。对PK列，不用设置唯一性</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+样式为：外键表(主键)</t>
         </r>
       </text>
     </comment>
@@ -222,6 +294,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -231,10 +304,85 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 当本列不为空时，并且转换为该种类型SQL脚本时，直接使用该列内容作为列类型，如nvarchar(36)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+一般一个表只有一个主键，其名称为：“PK_”+截取后的表名。注：字段过长会报错。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+一般一个表只有一个主键的序列，其序列名为：“SE_”+截取后的表列名。注：字段过长会报错。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+唯一约束名格式："UQ_"+截取后的表列名。注：字段过长会报错。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+样式为：外键表(主键)</t>
         </r>
       </text>
     </comment>
@@ -246,6 +394,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -255,6 +404,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -296,6 +446,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -305,10 +456,27 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 即标识列</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+样式为：外键表(主键)</t>
         </r>
       </text>
     </comment>
@@ -320,6 +488,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -329,10 +498,75 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 当本列不为空时，并且转换为该种类型SQL脚本时，直接使用该列内容作为列类型，如varchar(36)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+只有整型才能设置为自增长</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+一般一个表只有一个主键，其名称为：“PK_”+截取后的表名。注：字段过长会报错。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+唯一约束名格式："UQ_"+截取后的表列名。注：字段过长会报错。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+样式为：外键表(主键)</t>
         </r>
       </text>
     </comment>
@@ -344,6 +578,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -353,10 +588,70 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 当本列不为空时，并且转换为该种类型SQL脚本时，直接使用该列内容作为列类型，如character varying(36)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+一般一个表只有一个主键，其名称为：“PK_”+截取后的表名。注：字段过长会报错。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+唯一约束名格式："UQ_"+截取后的表列名。注：字段过长会报错。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+样式为："外键表"("主键")</t>
         </r>
       </text>
     </comment>
@@ -2059,7 +2354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="216">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2417,13 +2712,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型表</t>
-  </si>
-  <si>
     <t>BAS_TYPE</t>
-  </si>
-  <si>
-    <t>值表</t>
   </si>
   <si>
     <t>BAS_VALUE</t>
@@ -2571,10 +2860,6 @@
     <t>character varying</t>
   </si>
   <si>
-    <t>BAS_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IS_FROM_INTERFACE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2635,10 +2920,6 @@
   </si>
   <si>
     <t>PostgreSql外键名</t>
-  </si>
-  <si>
-    <t>BAS_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
@@ -2764,29 +3045,149 @@
     <t>修改</t>
   </si>
   <si>
-    <t>员工表</t>
+    <t>先删后增</t>
+  </si>
+  <si>
+    <t>BAS_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门表</t>
+    <t>BAS_VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ORG_EMPLOYEE</t>
-  </si>
-  <si>
-    <t>ORG_DEPT</t>
+    <t>BAS_VALUE2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ORG_EMPLOYEE</t>
+    <t>类型表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先删后增</t>
-  </si>
-  <si>
-    <t>IS_FROM_INTERFACE</t>
+    <t>值表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAS_TYPE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型表2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值表2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAS_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAS_TYPE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAS_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAS_VALUE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_FROM_INTERFACE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFY_MODE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BELONG_OBJECT_TYPE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTEND_VALUE11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTEND_VALUE12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAS_TYPE(TYPE_ID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLitePK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLiteUQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLiteFK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostgreSql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostgreSqlPK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostgreSqlUQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostgreSqlFK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>SQ_Oracle2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UQ_Oracle3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK_Oracle4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2794,7 +3195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2849,6 +3250,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2886,19 +3288,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2988,7 +3377,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3062,10 +3451,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3088,6 +3477,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3400,7 +3795,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3808,7 +4203,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -3822,13 +4217,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F2" s="11"/>
     </row>
@@ -3840,10 +4235,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="11"/>
@@ -3853,13 +4248,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="11"/>
@@ -3869,13 +4264,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="11"/>
@@ -4029,10 +4424,10 @@
   <dimension ref="A1:AJ55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4040,7 +4435,7 @@
     <col min="1" max="1" width="8.875" style="32"/>
     <col min="2" max="2" width="25.875" style="32" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="32" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="32" customWidth="1"/>
     <col min="5" max="22" width="8.875" style="32"/>
     <col min="23" max="23" width="10.5" style="22" customWidth="1"/>
     <col min="24" max="36" width="8.875" style="32"/>
@@ -4048,7 +4443,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="40.5">
       <c r="A1" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>31</v>
@@ -4060,13 +4455,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>11</v>
@@ -4075,85 +4470,85 @@
         <v>12</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="P1" s="29" t="s">
+      <c r="AB1" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD1" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE1" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF1" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG1" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z1" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB1" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AH1" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AI1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="AE1" s="30" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="AF1" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG1" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH1" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI1" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ1" s="31" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:36">
@@ -4161,7 +4556,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>34</v>
@@ -4208,7 +4603,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>13</v>
@@ -4257,7 +4652,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>27</v>
@@ -4308,7 +4703,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>40</v>
@@ -4359,7 +4754,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>42</v>
@@ -4408,7 +4803,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>44</v>
@@ -4457,7 +4852,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>46</v>
@@ -4506,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>28</v>
@@ -4557,7 +4952,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>29</v>
@@ -4610,7 +5005,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>51</v>
@@ -4663,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>54</v>
@@ -4716,7 +5111,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>57</v>
@@ -4767,7 +5162,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>58</v>
@@ -4822,13 +5217,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>17</v>
@@ -4877,13 +5272,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>17</v>
@@ -4896,7 +5291,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
@@ -4928,13 +5323,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>17</v>
@@ -4947,7 +5342,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
@@ -4979,13 +5374,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>17</v>
@@ -5000,9 +5395,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
@@ -5030,13 +5423,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>17</v>
@@ -5079,13 +5472,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>17</v>
@@ -5098,7 +5491,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
@@ -5130,13 +5523,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>17</v>
@@ -5149,7 +5542,7 @@
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
@@ -5181,13 +5574,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>17</v>
@@ -5200,7 +5593,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
@@ -5232,13 +5625,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>17</v>
@@ -5281,13 +5674,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>17</v>
@@ -5330,13 +5723,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>17</v>
@@ -5379,13 +5772,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>17</v>
@@ -5428,13 +5821,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>17</v>
@@ -5477,7 +5870,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>76</v>
@@ -5521,73 +5914,108 @@
       <c r="AI28" s="23"/>
       <c r="AJ28" s="23"/>
     </row>
-    <row r="29" spans="1:36">
-      <c r="A29" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="22" t="s">
+    <row r="29" spans="1:36" s="36" customFormat="1">
+      <c r="A29" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="35">
         <v>36</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22" t="s">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="23"/>
+      <c r="L29" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="N29" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="R29" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="S29" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="W29" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA29" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB29" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC29" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG29" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH29" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>17</v>
@@ -5596,47 +6024,65 @@
         <v>36</v>
       </c>
       <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
+      <c r="H30" s="22" t="s">
+        <v>212</v>
+      </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="O30" s="23" t="s">
+        <v>200</v>
+      </c>
       <c r="P30" s="23"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
       <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
+      <c r="T30" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="U30" s="23" t="s">
+        <v>215</v>
+      </c>
       <c r="V30" s="23"/>
       <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
+      <c r="Y30" s="23" t="s">
+        <v>200</v>
+      </c>
       <c r="Z30" s="23"/>
       <c r="AA30" s="23"/>
       <c r="AB30" s="23"/>
       <c r="AC30" s="23"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="23"/>
+      <c r="AD30" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE30" s="23" t="s">
+        <v>207</v>
+      </c>
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
       <c r="AH30" s="23"/>
-      <c r="AI30" s="23"/>
-      <c r="AJ30" s="23"/>
+      <c r="AI30" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ30" s="23" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>17</v>
@@ -5679,13 +6125,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>17</v>
@@ -5728,13 +6174,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>17</v>
@@ -5777,13 +6223,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>17</v>
@@ -5826,13 +6272,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>17</v>
@@ -5845,7 +6291,7 @@
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
@@ -5877,13 +6323,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>17</v>
@@ -5896,7 +6342,7 @@
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L36" s="23"/>
       <c r="M36" s="23"/>
@@ -5928,13 +6374,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>93</v>
-      </c>
       <c r="D37" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>17</v>
@@ -5977,13 +6423,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>17</v>
@@ -6026,13 +6472,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>17</v>
@@ -6075,13 +6521,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>17</v>
@@ -6124,13 +6570,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>17</v>
@@ -6173,13 +6619,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>17</v>
@@ -6217,18 +6663,18 @@
       <c r="AI42" s="23"/>
       <c r="AJ42" s="23"/>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" ht="16.5" customHeight="1">
       <c r="A43" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>17</v>
@@ -6241,7 +6687,7 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
@@ -6273,13 +6719,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>17</v>
@@ -6292,7 +6738,7 @@
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
@@ -6321,16 +6767,16 @@
     </row>
     <row r="45" spans="1:36">
       <c r="A45" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>17</v>
@@ -6343,7 +6789,7 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
@@ -6372,16 +6818,16 @@
     </row>
     <row r="46" spans="1:36">
       <c r="A46" s="22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>17</v>
@@ -6421,16 +6867,16 @@
     </row>
     <row r="47" spans="1:36">
       <c r="A47" s="22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>17</v>
@@ -6803,7 +7249,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7693,7 +8139,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
@@ -7710,7 +8156,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -7730,7 +8176,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
@@ -7753,7 +8199,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>40</v>
@@ -7776,7 +8222,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>42</v>
@@ -7796,7 +8242,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>44</v>
@@ -7816,7 +8262,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>46</v>
@@ -7836,7 +8282,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
@@ -7859,7 +8305,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
@@ -7885,7 +8331,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>51</v>
@@ -7911,7 +8357,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>54</v>
@@ -7937,7 +8383,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>57</v>
@@ -7960,7 +8406,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -7989,13 +8435,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>17</v>
@@ -8018,13 +8464,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>17</v>
@@ -8033,7 +8479,7 @@
         <v>20</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -8041,13 +8487,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>17</v>
@@ -8056,7 +8502,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -8064,13 +8510,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
@@ -8087,13 +8533,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>17</v>
@@ -8107,13 +8553,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>17</v>
@@ -8122,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -8130,13 +8576,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>17</v>
@@ -8145,7 +8591,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -8153,13 +8599,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>17</v>
@@ -8168,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -8176,13 +8622,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>17</v>
@@ -8196,13 +8642,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>17</v>
@@ -8216,13 +8662,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>17</v>
@@ -8236,13 +8682,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>17</v>
@@ -8256,13 +8702,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>17</v>
@@ -8276,7 +8722,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>76</v>
@@ -8296,13 +8742,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>17</v>
@@ -8325,13 +8771,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>17</v>
@@ -8345,13 +8791,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>17</v>
@@ -8365,13 +8811,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>17</v>
@@ -8385,13 +8831,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>17</v>
@@ -8405,13 +8851,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>17</v>
@@ -8425,13 +8871,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>17</v>
@@ -8440,7 +8886,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -8448,13 +8894,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>17</v>
@@ -8463,7 +8909,7 @@
         <v>2</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -8471,13 +8917,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>17</v>
@@ -8491,13 +8937,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>17</v>
@@ -8511,13 +8957,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>17</v>
@@ -8531,13 +8977,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>17</v>
@@ -8551,13 +8997,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>17</v>
@@ -8571,13 +9017,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>17</v>
@@ -8626,7 +9072,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9650,7 +10096,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
@@ -9659,7 +10105,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -9667,7 +10113,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -9676,7 +10122,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" s="4">
         <v>200</v>
@@ -9687,7 +10133,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
@@ -9696,13 +10142,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -9710,7 +10156,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>40</v>
@@ -9719,7 +10165,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="4">
         <v>36</v>
@@ -9733,7 +10179,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>42</v>
@@ -9742,7 +10188,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
@@ -9753,7 +10199,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>44</v>
@@ -9762,7 +10208,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4">
         <v>36</v>
@@ -9773,7 +10219,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>46</v>
@@ -9782,7 +10228,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4">
         <v>50</v>
@@ -9793,7 +10239,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
@@ -9802,13 +10248,13 @@
         <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -9816,7 +10262,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
@@ -9825,7 +10271,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -9842,7 +10288,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>51</v>
@@ -9851,7 +10297,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -9868,7 +10314,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>54</v>
@@ -9877,7 +10323,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F12" s="4">
         <v>36</v>
@@ -9894,7 +10340,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>57</v>
@@ -9903,7 +10349,7 @@
         <v>78</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="4">
         <v>36</v>
@@ -9917,7 +10363,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -9926,7 +10372,7 @@
         <v>59</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
@@ -9946,16 +10392,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F15" s="4">
         <v>36</v>
@@ -9975,22 +10421,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16" s="4">
         <v>20</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -9998,22 +10444,22 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" s="4">
         <v>20</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -10021,16 +10467,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F18" s="4">
         <v>50</v>
@@ -10041,16 +10487,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F19" s="4">
         <v>100</v>
@@ -10061,22 +10507,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -10084,22 +10530,22 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10107,22 +10553,22 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -10130,16 +10576,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F23" s="4">
         <v>50</v>
@@ -10150,16 +10596,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F24" s="4">
         <v>50</v>
@@ -10170,16 +10616,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F25" s="4">
         <v>50</v>
@@ -10190,16 +10636,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F26" s="4">
         <v>50</v>
@@ -10210,16 +10656,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F27" s="4">
         <v>50</v>
@@ -10230,7 +10676,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>76</v>
@@ -10239,7 +10685,7 @@
         <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F28" s="4">
         <v>200</v>
@@ -10250,16 +10696,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F29" s="4">
         <v>36</v>
@@ -10279,16 +10725,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F30" s="4">
         <v>36</v>
@@ -10299,16 +10745,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F31" s="4">
         <v>50</v>
@@ -10319,16 +10765,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F32" s="4">
         <v>100</v>
@@ -10339,16 +10785,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F33" s="4">
         <v>50</v>
@@ -10359,16 +10805,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F34" s="4">
         <v>100</v>
@@ -10379,22 +10825,22 @@
         <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F35" s="4">
         <v>2</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -10402,22 +10848,22 @@
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F36" s="4">
         <v>2</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -10425,16 +10871,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F37" s="4">
         <v>100</v>
@@ -10445,16 +10891,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F38" s="4">
         <v>100</v>
@@ -10465,16 +10911,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F39" s="4">
         <v>100</v>
@@ -10485,16 +10931,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F40" s="4">
         <v>100</v>
@@ -10505,16 +10951,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F41" s="4">
         <v>100</v>
@@ -10525,16 +10971,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F42" s="4">
         <v>200</v>
@@ -10589,7 +11035,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11591,7 +12037,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M1" s="24" t="s">
         <v>75</v>
@@ -11605,7 +12051,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
@@ -11622,7 +12068,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -11642,7 +12088,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
@@ -11657,7 +12103,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -11665,7 +12111,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>40</v>
@@ -11688,7 +12134,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>42</v>
@@ -11708,7 +12154,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>44</v>
@@ -11728,7 +12174,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>46</v>
@@ -11748,7 +12194,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
@@ -11763,7 +12209,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -11771,7 +12217,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
@@ -11797,7 +12243,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>51</v>
@@ -11823,7 +12269,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>54</v>
@@ -11849,7 +12295,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>57</v>
@@ -11872,7 +12318,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -11901,13 +12347,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>17</v>
@@ -11930,13 +12376,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>17</v>
@@ -11945,7 +12391,7 @@
         <v>20</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -11953,13 +12399,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>17</v>
@@ -11968,7 +12414,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -11976,13 +12422,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
@@ -11996,13 +12442,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>17</v>
@@ -12016,13 +12462,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>17</v>
@@ -12031,7 +12477,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -12039,13 +12485,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>17</v>
@@ -12054,7 +12500,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -12062,13 +12508,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>17</v>
@@ -12077,7 +12523,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -12085,13 +12531,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>17</v>
@@ -12105,13 +12551,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>17</v>
@@ -12125,13 +12571,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>17</v>
@@ -12145,13 +12591,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>17</v>
@@ -12165,13 +12611,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>17</v>
@@ -12185,7 +12631,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>76</v>
@@ -12205,13 +12651,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>17</v>
@@ -12234,13 +12680,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>17</v>
@@ -12254,13 +12700,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>17</v>
@@ -12274,13 +12720,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>17</v>
@@ -12294,13 +12740,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>17</v>
@@ -12314,13 +12760,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>17</v>
@@ -12334,13 +12780,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>17</v>
@@ -12349,7 +12795,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -12357,13 +12803,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>17</v>
@@ -12372,7 +12818,7 @@
         <v>2</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -12380,13 +12826,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>17</v>
@@ -12400,13 +12846,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>17</v>
@@ -12420,13 +12866,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>17</v>
@@ -12440,13 +12886,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>17</v>
@@ -12460,13 +12906,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>17</v>
@@ -12480,13 +12926,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>17</v>
@@ -12550,7 +12996,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13548,7 +13994,7 @@
         <v>12</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>13</v>
@@ -13574,7 +14020,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
@@ -13591,7 +14037,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -13611,7 +14057,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
@@ -13631,7 +14077,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>40</v>
@@ -13654,7 +14100,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>42</v>
@@ -13674,7 +14120,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>44</v>
@@ -13694,7 +14140,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>46</v>
@@ -13714,7 +14160,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
@@ -13734,7 +14180,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
@@ -13760,7 +14206,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>51</v>
@@ -13786,7 +14232,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>54</v>
@@ -13812,7 +14258,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>57</v>
@@ -13835,7 +14281,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -13864,13 +14310,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>17</v>
@@ -13893,13 +14339,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>17</v>
@@ -13908,7 +14354,7 @@
         <v>20</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13916,13 +14362,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>17</v>
@@ -13931,7 +14377,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13939,13 +14385,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
@@ -13959,13 +14405,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>17</v>
@@ -13979,13 +14425,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>17</v>
@@ -13994,7 +14440,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -14002,13 +14448,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>17</v>
@@ -14017,7 +14463,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -14025,13 +14471,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>17</v>
@@ -14040,7 +14486,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -14048,13 +14494,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>17</v>
@@ -14068,13 +14514,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>17</v>
@@ -14088,13 +14534,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>17</v>
@@ -14108,13 +14554,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>17</v>
@@ -14128,13 +14574,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>17</v>
@@ -14148,7 +14594,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>76</v>
@@ -14168,13 +14614,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>17</v>
@@ -14197,13 +14643,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>17</v>
@@ -14217,13 +14663,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>17</v>
@@ -14237,13 +14683,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>17</v>
@@ -14257,13 +14703,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>17</v>
@@ -14277,13 +14723,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>17</v>
@@ -14297,13 +14743,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>17</v>
@@ -14312,7 +14758,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -14320,13 +14766,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>17</v>
@@ -14335,7 +14781,7 @@
         <v>2</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -14343,13 +14789,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>17</v>
@@ -14363,13 +14809,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>17</v>
@@ -14383,13 +14829,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>17</v>
@@ -14403,13 +14849,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>17</v>
@@ -14423,13 +14869,13 @@
         <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>17</v>
@@ -14443,13 +14889,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>17</v>
@@ -14510,10 +14956,10 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15489,7 +15935,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -15533,7 +15979,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
@@ -15542,7 +15988,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -15550,7 +15996,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -15559,7 +16005,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F3" s="4">
         <v>200</v>
@@ -15570,7 +16016,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
@@ -15579,13 +16025,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -15593,7 +16039,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>40</v>
@@ -15602,7 +16048,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="4">
         <v>36</v>
@@ -15616,7 +16062,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>42</v>
@@ -15625,7 +16071,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
@@ -15636,7 +16082,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>44</v>
@@ -15645,7 +16091,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="4">
         <v>36</v>
@@ -15656,7 +16102,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>46</v>
@@ -15665,7 +16111,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="4">
         <v>50</v>
@@ -15676,7 +16122,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
@@ -15685,13 +16131,13 @@
         <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -15699,7 +16145,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>29</v>
@@ -15708,7 +16154,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -15725,7 +16171,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>51</v>
@@ -15734,7 +16180,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -15751,7 +16197,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>54</v>
@@ -15760,7 +16206,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" s="4">
         <v>36</v>
@@ -15777,7 +16223,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>57</v>
@@ -15786,7 +16232,7 @@
         <v>78</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="4">
         <v>36</v>
@@ -15800,7 +16246,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>58</v>
@@ -15809,7 +16255,7 @@
         <v>59</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
@@ -15829,16 +16275,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="4">
         <v>36</v>
@@ -15858,22 +16304,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="4">
         <v>20</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -15881,22 +16327,22 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F17" s="4">
         <v>20</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -15904,16 +16350,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" s="4">
         <v>50</v>
@@ -15924,16 +16370,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="4">
         <v>100</v>
@@ -15944,22 +16390,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -15967,22 +16413,22 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -15990,22 +16436,22 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -16013,16 +16459,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="4">
         <v>50</v>
@@ -16033,16 +16479,16 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F24" s="4">
         <v>50</v>
@@ -16053,16 +16499,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F25" s="4">
         <v>50</v>
@@ -16073,16 +16519,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F26" s="4">
         <v>50</v>
@@ -16093,16 +16539,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F27" s="4">
         <v>50</v>
@@ -16113,7 +16559,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>76</v>
@@ -16122,7 +16568,7 @@
         <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" s="4">
         <v>200</v>
@@ -16133,16 +16579,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F29" s="4">
         <v>36</v>
@@ -16162,16 +16608,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F30" s="4">
         <v>36</v>
@@ -16182,16 +16628,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F31" s="4">
         <v>50</v>
@@ -16202,16 +16648,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F32" s="4">
         <v>100</v>
@@ -16222,16 +16668,16 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" s="4">
         <v>50</v>
@@ -16242,16 +16688,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F34" s="4">
         <v>100</v>
@@ -16262,22 +16708,22 @@
         <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F35" s="4">
         <v>2</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -16285,22 +16731,22 @@
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F36" s="4">
         <v>2</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -16308,16 +16754,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F37" s="4">
         <v>100</v>
@@ -16328,16 +16774,16 @@
         <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F38" s="4">
         <v>100</v>
@@ -16348,16 +16794,16 @@
         <v>5</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F39" s="4">
         <v>100</v>
@@ -16368,16 +16814,16 @@
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F40" s="4">
         <v>100</v>
@@ -16388,16 +16834,16 @@
         <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F41" s="4">
         <v>100</v>
@@ -16408,16 +16854,16 @@
         <v>5</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F42" s="4">
         <v>200</v>
@@ -16481,7 +16927,7 @@
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="B2" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
@@ -16496,12 +16942,12 @@
     </row>
     <row r="5" spans="1:3" ht="14.25">
       <c r="B5" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
       <c r="B6" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16551,7 +16997,7 @@
         <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
